--- a/relaciones.xlsx
+++ b/relaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imail\OneDrive\Desktop\CODIGO ESTADIAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/904702f6d0479124/Desktop/CODIGO ESTADIAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C922AA6B-3151-46B1-B8FE-1919D214F2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C922AA6B-3151-46B1-B8FE-1919D214F2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA747614-D4AB-47D7-90AC-62719E661146}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B5FFFD52-C1CF-4748-BBE8-8FA2D60D5EDD}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B5FFFD52-C1CF-4748-BBE8-8FA2D60D5EDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="31">
   <si>
     <t>figaspars@liverpool.com.mx</t>
   </si>
@@ -63,20 +63,77 @@
     <t>Beatriz Herrera</t>
   </si>
   <si>
-    <t>imanolelgamer_@hotmail.com</t>
-  </si>
-  <si>
-    <t>Imanol Gaspar</t>
-  </si>
-  <si>
     <t>Alfredo Encinas</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Irene Rojas</t>
+  </si>
+  <si>
+    <t>Yanet Matas Manzano</t>
+  </si>
+  <si>
+    <t>edcastilloj@liverpool.com.mx</t>
+  </si>
+  <si>
+    <t>Eder</t>
+  </si>
+  <si>
+    <t>Sergio Lopez</t>
+  </si>
+  <si>
+    <t>Adriana Prieto</t>
+  </si>
+  <si>
+    <t>ecoronadoh@liverpool.com.mx</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Yazmin Corral</t>
+  </si>
+  <si>
+    <t>Blanca Lopez</t>
+  </si>
+  <si>
+    <t>Liliana Castillo</t>
+  </si>
+  <si>
+    <t>mireyesb@liverpool.com.mx</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Alejandro Morales</t>
+  </si>
+  <si>
+    <t>Fernando Dominguez</t>
+  </si>
+  <si>
+    <t>jgonzalezs14@liverpool.com.mx</t>
+  </si>
+  <si>
+    <t>Ana Vazquez</t>
+  </si>
+  <si>
+    <t>Xareni Espindola Perez</t>
+  </si>
+  <si>
+    <t>Yuviana</t>
+  </si>
+  <si>
+    <t>tgyuvianyg@liverpool.com.mx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +160,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,14 +190,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -448,20 +520,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58494B71-9843-4C04-979A-50D0244DB90B}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -475,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,8 +630,9 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,7 +842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,18 +870,1720 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25">
-        <v>223</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="2">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="6">
+        <v>104</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="6">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="6">
+        <v>107</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="6">
+        <v>147</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="6">
+        <v>149</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="6">
+        <v>152</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="6">
+        <v>154</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2">
+        <v>156</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="6">
+        <v>157</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2">
+        <v>161</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="6">
+        <v>302</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="6">
+        <v>307</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="6">
+        <v>322</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2">
+        <v>323</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2">
+        <v>365</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="6">
+        <v>388</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>321</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>224</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>241</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>242</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>245</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>246</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>247</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>251</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>252</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>271</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>276</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>279</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>282</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>285</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>288</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62">
+        <v>391</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63">
+        <v>393</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>521</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>522</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>532</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67">
+        <v>535</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <v>201</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69">
+        <v>202</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>203</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71">
+        <v>205</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72">
+        <v>206</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73">
+        <v>207</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74">
+        <v>211</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75">
+        <v>327</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76">
+        <v>338</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>357</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78">
+        <v>358</v>
+      </c>
+      <c r="D78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79">
+        <v>401</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80">
+        <v>402</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81">
+        <v>404</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82">
+        <v>405</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83">
+        <v>423</v>
+      </c>
+      <c r="D83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84">
+        <v>424</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85">
+        <v>425</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86">
+        <v>433</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87">
+        <v>435</v>
+      </c>
+      <c r="D87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88">
+        <v>437</v>
+      </c>
+      <c r="D88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89">
+        <v>443</v>
+      </c>
+      <c r="D89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90">
+        <v>444</v>
+      </c>
+      <c r="D90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91">
+        <v>447</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92">
+        <v>448</v>
+      </c>
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93">
+        <v>450</v>
+      </c>
+      <c r="D93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94">
+        <v>456</v>
+      </c>
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95">
+        <v>459</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96">
+        <v>466</v>
+      </c>
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97">
+        <v>469</v>
+      </c>
+      <c r="D97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98">
+        <v>478</v>
+      </c>
+      <c r="D98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99">
+        <v>479</v>
+      </c>
+      <c r="D99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100">
+        <v>486</v>
+      </c>
+      <c r="D100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101">
+        <v>610</v>
+      </c>
+      <c r="D101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102">
+        <v>627</v>
+      </c>
+      <c r="D102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103">
+        <v>628</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104">
+        <v>629</v>
+      </c>
+      <c r="D104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>22</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105">
+        <v>630</v>
+      </c>
+      <c r="D105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>22</v>
+      </c>
+      <c r="B106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106">
+        <v>631</v>
+      </c>
+      <c r="D106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>22</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107">
+        <v>632</v>
+      </c>
+      <c r="D107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108">
+        <v>633</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109">
+        <v>637</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>22</v>
+      </c>
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110">
+        <v>638</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>22</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111">
+        <v>639</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112">
+        <v>640</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113">
+        <v>110</v>
+      </c>
+      <c r="D113" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>26</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114">
+        <v>116</v>
+      </c>
+      <c r="D114" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115">
+        <v>340</v>
+      </c>
+      <c r="D115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>26</v>
+      </c>
+      <c r="B116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116">
+        <v>343</v>
+      </c>
+      <c r="D116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>26</v>
+      </c>
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117">
+        <v>345</v>
+      </c>
+      <c r="D117" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>26</v>
+      </c>
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118">
+        <v>351</v>
+      </c>
+      <c r="D118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>26</v>
+      </c>
+      <c r="B119" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119">
+        <v>356</v>
+      </c>
+      <c r="D119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120">
+        <v>380</v>
+      </c>
+      <c r="D120" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>26</v>
+      </c>
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121">
+        <v>398</v>
+      </c>
+      <c r="D121" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>26</v>
+      </c>
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122">
+        <v>413</v>
+      </c>
+      <c r="D122" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123">
+        <v>417</v>
+      </c>
+      <c r="D123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>26</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124">
+        <v>421</v>
+      </c>
+      <c r="D124" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>26</v>
+      </c>
+      <c r="B125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125">
+        <v>436</v>
+      </c>
+      <c r="D125" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>26</v>
+      </c>
+      <c r="B126" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126">
+        <v>438</v>
+      </c>
+      <c r="D126" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>26</v>
+      </c>
+      <c r="B127" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127">
+        <v>473</v>
+      </c>
+      <c r="D127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>26</v>
+      </c>
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128">
+        <v>623</v>
+      </c>
+      <c r="D128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>26</v>
+      </c>
+      <c r="B129" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129">
+        <v>625</v>
+      </c>
+      <c r="D129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>26</v>
+      </c>
+      <c r="B130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130">
+        <v>634</v>
+      </c>
+      <c r="D130" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>26</v>
+      </c>
+      <c r="B131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131">
+        <v>635</v>
+      </c>
+      <c r="D131" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>26</v>
+      </c>
+      <c r="B132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132">
+        <v>636</v>
+      </c>
+      <c r="D132" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B133" t="s">
+        <v>29</v>
+      </c>
+      <c r="C133">
+        <v>503</v>
+      </c>
+      <c r="D133" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B134" t="s">
+        <v>29</v>
+      </c>
+      <c r="C134">
+        <v>504</v>
+      </c>
+      <c r="D134" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B135" t="s">
+        <v>29</v>
+      </c>
+      <c r="C135">
+        <v>508</v>
+      </c>
+      <c r="D135" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" t="s">
+        <v>29</v>
+      </c>
+      <c r="C136">
+        <v>510</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B137" t="s">
+        <v>29</v>
+      </c>
+      <c r="C137">
+        <v>511</v>
+      </c>
+      <c r="D137" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B138" t="s">
+        <v>29</v>
+      </c>
+      <c r="C138">
+        <v>512</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B139" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139">
+        <v>514</v>
+      </c>
+      <c r="D139" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B140" t="s">
+        <v>29</v>
+      </c>
+      <c r="C140">
+        <v>520</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B141" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141">
+        <v>524</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B142" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142">
+        <v>529</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143" t="s">
+        <v>29</v>
+      </c>
+      <c r="C143">
+        <v>533</v>
+      </c>
+      <c r="D143" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B144" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144">
+        <v>540</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B145" t="s">
+        <v>29</v>
+      </c>
+      <c r="C145">
+        <v>544</v>
+      </c>
+      <c r="D145" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B146" t="s">
+        <v>29</v>
+      </c>
+      <c r="C146">
+        <v>553</v>
+      </c>
+      <c r="D146" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B147" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147">
+        <v>557</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -816,6 +2591,8 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{B3993411-8498-429D-A808-678F8386BE9A}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{0B461813-A3E4-4D2B-BB70-BF2BFB06CC2F}"/>
     <hyperlink ref="A4:A24" r:id="rId3" display="figaspars@liverpool.com.mx" xr:uid="{C89E0445-341B-4FF6-B559-FE20666192A7}"/>
+    <hyperlink ref="A133" r:id="rId4" xr:uid="{E51FC46C-18D4-4B9E-BB86-F9429042FC77}"/>
+    <hyperlink ref="A134:A147" r:id="rId5" display="tgyuvianyg@liverpool.com.mx" xr:uid="{1DC4BFC9-D1A0-4CB8-BEAE-65FCD6762E3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/relaciones.xlsx
+++ b/relaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/904702f6d0479124/Desktop/CODIGO ESTADIAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C922AA6B-3151-46B1-B8FE-1919D214F2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA747614-D4AB-47D7-90AC-62719E661146}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C922AA6B-3151-46B1-B8FE-1919D214F2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B1EF579-81FE-41D5-950F-02693A7F99CE}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B5FFFD52-C1CF-4748-BBE8-8FA2D60D5EDD}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{B5FFFD52-C1CF-4748-BBE8-8FA2D60D5EDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="31">
   <si>
     <t>figaspars@liverpool.com.mx</t>
   </si>
@@ -522,18 +522,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58494B71-9843-4C04-979A-50D0244DB90B}">
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +632,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,7 +772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,7 +870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -884,7 +884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -898,7 +898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
@@ -912,7 +912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
@@ -926,7 +926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
@@ -940,7 +940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>13</v>
       </c>
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
@@ -968,7 +968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>13</v>
       </c>
@@ -982,7 +982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>13</v>
       </c>
@@ -996,7 +996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>13</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>13</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>13</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>13</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>13</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>13</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>13</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>13</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>13</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>13</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>13</v>
       </c>
@@ -1164,29 +1164,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46">
+        <v>338</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="7">
         <v>321</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1194,13 +1200,13 @@
         <v>14</v>
       </c>
       <c r="C48">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1208,13 +1214,13 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1222,13 +1228,13 @@
         <v>14</v>
       </c>
       <c r="C50">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1236,13 +1242,13 @@
         <v>14</v>
       </c>
       <c r="C51">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -1250,13 +1256,13 @@
         <v>14</v>
       </c>
       <c r="C52">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -1264,13 +1270,13 @@
         <v>14</v>
       </c>
       <c r="C53">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -1278,13 +1284,13 @@
         <v>14</v>
       </c>
       <c r="C54">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -1292,13 +1298,13 @@
         <v>14</v>
       </c>
       <c r="C55">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -1306,13 +1312,13 @@
         <v>14</v>
       </c>
       <c r="C56">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1320,13 +1326,13 @@
         <v>14</v>
       </c>
       <c r="C57">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -1334,13 +1340,13 @@
         <v>14</v>
       </c>
       <c r="C58">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -1348,13 +1354,13 @@
         <v>14</v>
       </c>
       <c r="C59">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -1362,13 +1368,13 @@
         <v>14</v>
       </c>
       <c r="C60">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -1376,13 +1382,13 @@
         <v>14</v>
       </c>
       <c r="C61">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -1390,13 +1396,13 @@
         <v>14</v>
       </c>
       <c r="C62">
-        <v>391</v>
+        <v>288</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1404,13 +1410,13 @@
         <v>14</v>
       </c>
       <c r="C63">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D63" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -1418,13 +1424,13 @@
         <v>14</v>
       </c>
       <c r="C64">
-        <v>521</v>
+        <v>393</v>
       </c>
       <c r="D64" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -1432,13 +1438,13 @@
         <v>14</v>
       </c>
       <c r="C65">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -1446,13 +1452,13 @@
         <v>14</v>
       </c>
       <c r="C66">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D66" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -1460,41 +1466,41 @@
         <v>14</v>
       </c>
       <c r="C67">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D67" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C68">
+        <v>535</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69">
         <v>201</v>
-      </c>
-      <c r="D68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69">
-        <v>202</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -1502,13 +1508,13 @@
         <v>18</v>
       </c>
       <c r="C70">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -1516,13 +1522,13 @@
         <v>18</v>
       </c>
       <c r="C71">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -1530,13 +1536,13 @@
         <v>18</v>
       </c>
       <c r="C72">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -1544,13 +1550,13 @@
         <v>18</v>
       </c>
       <c r="C73">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -1558,13 +1564,13 @@
         <v>18</v>
       </c>
       <c r="C74">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D74" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -1572,13 +1578,13 @@
         <v>18</v>
       </c>
       <c r="C75">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -1586,13 +1592,13 @@
         <v>18</v>
       </c>
       <c r="C76">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -1606,7 +1612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -1620,7 +1626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>22</v>
       </c>
@@ -1634,7 +1640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -1704,7 +1710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -1718,7 +1724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -1788,7 +1794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -1858,7 +1864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -1872,7 +1878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>22</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>22</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>22</v>
       </c>
@@ -1942,7 +1948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>22</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>22</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>22</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>22</v>
       </c>
@@ -2054,7 +2060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>22</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -2082,7 +2088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>22</v>
       </c>
@@ -2096,7 +2102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>26</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>26</v>
       </c>
@@ -2180,7 +2186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>26</v>
       </c>
@@ -2194,7 +2200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -2208,7 +2214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>26</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -2250,7 +2256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>26</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>26</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -2292,7 +2298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -2306,7 +2312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>26</v>
       </c>
@@ -2320,7 +2326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>26</v>
       </c>
@@ -2334,7 +2340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>26</v>
       </c>
@@ -2348,7 +2354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>26</v>
       </c>
@@ -2362,7 +2368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -2376,7 +2382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>30</v>
       </c>
@@ -2390,7 +2396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>30</v>
       </c>
@@ -2404,7 +2410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>30</v>
       </c>
@@ -2418,7 +2424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>30</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>30</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>30</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>30</v>
       </c>
@@ -2474,7 +2480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>30</v>
       </c>
@@ -2488,7 +2494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>30</v>
       </c>
@@ -2502,7 +2508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>30</v>
       </c>
@@ -2516,7 +2522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>30</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>30</v>
       </c>
@@ -2544,7 +2550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>30</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>30</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>30</v>
       </c>
